--- a/biology/Biologie cellulaire et moléculaire/Micronème/Micronème.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Micronème/Micronème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Micron%C3%A8me</t>
+          <t>Micronème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les micronèmes sont des organites constitutifs de certains protozoaires. On en retrouve dans la forme merozoïte de Plasmodium falciparum.
 Ils se situent en général au niveau du complexe apical et adoptent une forme en bâtonnet, entourés d'une membrane.
